--- a/data/evaluation/evaluation_North_Spring_Clementines.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Clementines.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3629.554384465738</v>
+        <v>3574.622743840738</v>
       </c>
       <c r="C3" t="n">
-        <v>21981807.35362979</v>
+        <v>21553855.54088565</v>
       </c>
       <c r="D3" t="n">
-        <v>4688.476016109051</v>
+        <v>4642.613007874515</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02722805187477073</v>
+        <v>0.04616641812872202</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3676.50913888655</v>
+        <v>3658.394948768361</v>
       </c>
       <c r="C4" t="n">
-        <v>21895174.55052879</v>
+        <v>21881810.26646695</v>
       </c>
       <c r="D4" t="n">
-        <v>4679.227986594454</v>
+        <v>4677.799724920568</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03106185677026307</v>
+        <v>0.03165327313712474</v>
       </c>
     </row>
     <row r="5">
